--- a/output/run_linkedin_crawl_info__DONE.xlsx
+++ b/output/run_linkedin_crawl_info__DONE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,86 +447,286 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FULL_NAME</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>JOB_TITLE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>LOCALITY</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CONNECTION</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>COUNTRY_CODE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CITY</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>STATE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>COUNTRY</t>
+          <t>info</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>alibaba</t>
+          <t>CloudTrains Technologies</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/chris-jadrich-528a7b53</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>https://in.linkedin.com/in/cloudtrainstripti</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tripti T. - Co-Founder &amp; CEO - Skillsy</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>google</t>
+          <t>CloudTrains Technologies</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://vn.linkedin.com/in/duy-h%C6%B0ng-bb95b6aa</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>https://in.linkedin.com/in/tripti-tiwari-21033110a</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tripti Tiwari - Software Engineer - CloudTrains Systems</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CloudTrains Technologies</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/abhimanyustanwar</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Abhimanyu Tanwar - CEO &amp; Co-Founder - Cloud Train</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BlueCloud Technologies</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/praveen-ramineni-4b66556</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Praveen Ramineni - Co-Founder, Blue.Cloud</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BlueCloud Technologies</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/raghavbeeram</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Raghav Beeram - CEO - India - Blue.cloud</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BlueCloud Technologies</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/keremkoca</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Kerem Koca - Chief Executive Officer - Blue.cloud</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cuelogic Technologies</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/vikrantlabde</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Vikrant Labde - CTO &amp; Co-Founder - Cuelogic Technologies</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cuelogic Technologies</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/nikhilambekar</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Nikhil Ambekar - Executive MBA - XLRI Jamshedpur</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cuelogic Technologies</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/neelvartikar</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Neel Vartikar - Chief Customer and Commercial Officer</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Osiz Technologies Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/thangapandi-d-61757176</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Thangapandi D - CEO - Koinpark</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Osiz Technologies Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/nandhini-ganesh-b12065175</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Nandhini ganesh - Osiz Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Osiz Technologies Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/vaira-prabhu-b5903a176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Vaira prabhu - Developer - Osiz Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Avenga</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://ua.linkedin.com/in/ikohut</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ivan Kohut - Chief Technology Officer - Avenga</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Avenga</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://ua.linkedin.com/in/askoropad</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Andriy Skoropad - Advisory Board Member - Avenga</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Avenga</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/igorkruglyak</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Igor Kruglyak - Principal - Magtech Limited</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>